--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43137,6 +43137,41 @@
         <v>89200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>44200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43172,6 +43172,41 @@
         <v>44200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>73700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43207,6 +43207,41 @@
         <v>73700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43242,6 +43242,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>114800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43277,6 +43277,41 @@
         <v>114800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43312,6 +43312,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>349000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,41 @@
         <v>349000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>113300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43382,6 +43382,41 @@
         <v>113300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>77500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,41 @@
         <v>77500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>399500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         <v>399500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>253900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,41 @@
         <v>253900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>106000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,76 @@
         <v>106000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>193600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>284400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,76 @@
         <v>284400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>263100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>256200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>256200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>327600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>327600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>196300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,41 @@
         <v>196300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>131400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         <v>131400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>471800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,76 @@
         <v>471800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>115100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,41 @@
         <v>142400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>142000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         <v>142000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>289900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87622,6 +87622,41 @@
         <v>289900</v>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>260400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87657,6 +87657,41 @@
         <v>260400</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>753400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87692,6 +87692,41 @@
         <v>753400</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>920000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87727,6 +87727,41 @@
         <v>920000</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>608100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87762,6 +87762,41 @@
         <v>608100</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>193500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87797,6 +87797,41 @@
         <v>193500</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>252800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87832,6 +87832,41 @@
         <v>252800</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>163100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87867,6 +87867,41 @@
         <v>163100</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>216700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87902,6 +87902,41 @@
         <v>216700</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>151000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87937,6 +87937,41 @@
         <v>151000</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2498"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87972,6 +87972,41 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>79400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88007,6 +88007,41 @@
         <v>79400</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2500"/>
+  <dimension ref="A1:I2501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88042,6 +88042,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>55500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2501"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88077,6 +88077,41 @@
         <v>55500</v>
       </c>
     </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88112,6 +88112,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>171700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88147,6 +88147,41 @@
         <v>171700</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>124300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88182,6 +88182,41 @@
         <v>124300</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>478400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88217,6 +88217,41 @@
         <v>478400</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>208300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88252,6 +88252,41 @@
         <v>208300</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>306900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88287,6 +88287,41 @@
         <v>306900</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>401800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88322,6 +88322,41 @@
         <v>401800</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>273500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88357,6 +88357,41 @@
         <v>273500</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>363500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88392,6 +88392,41 @@
         <v>363500</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>466500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88427,6 +88427,41 @@
         <v>466500</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>208900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88462,6 +88462,41 @@
         <v>208900</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>331400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88497,6 +88497,76 @@
         <v>331400</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>453800</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>199400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88567,6 +88567,41 @@
         <v>199400</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>460400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88602,6 +88602,111 @@
         <v>460400</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>694400</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>186100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88707,6 +88707,41 @@
         <v>186100</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>209900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88742,6 +88742,41 @@
         <v>209900</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>210600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5152.xlsx
+++ b/data/5152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2521"/>
+  <dimension ref="A1:I2524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88777,6 +88777,111 @@
         <v>210600</v>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2522" t="n">
+        <v>228600</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>218100</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>5152</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="E2524" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2524" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2524" t="n">
+        <v>206600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
